--- a/biology/Zoologie/Anoplodera/Anoplodera.xlsx
+++ b/biology/Zoologie/Anoplodera/Anoplodera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoplodera est un genre d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 juin 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 juin 2020) :
 Anoplodera (Anoplodera) Mulsant, 1839
 Anoplodera (Anoploderomorpha) Pic, 1901
 Anoplodera (Falsojudolia) Pic, 1935
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En Europe, selon Fauna Europaea                                      (13 juillet 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En Europe, selon Fauna Europaea                                      (13 juillet 2013) :
 Anoplodera nigroflava (Fuss, 1852)
 Anoplodera rufipes (Schaller, 1783)
 Anoplodera rufipes izzilloi Sama, 1999
@@ -556,7 +572,7 @@
 Autres
 Anoplodera fulva (DeGeer)
 Anoplodera cordigera (Fuessly)
-Selon EOL                          (13 juillet 2013)[3] :
+Selon EOL                          (13 juillet 2013) :
 Anoplodera antecurrens (Wickham, 1913)
 Anoplodera atramentaria (Ganglbauer, 1890)
 Anoplodera bicolorimembris Pic, 1954
